--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value229.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value229.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9140842070436058</v>
+        <v>1.230310916900635</v>
       </c>
       <c r="B1">
-        <v>0.8741492935219035</v>
+        <v>2.172172784805298</v>
       </c>
       <c r="C1">
-        <v>0.8776930792776343</v>
+        <v>4.168947219848633</v>
       </c>
       <c r="D1">
-        <v>1.12116524896757</v>
+        <v>3.072719097137451</v>
       </c>
       <c r="E1">
-        <v>1.756864141266211</v>
+        <v>1.075792789459229</v>
       </c>
     </row>
   </sheetData>
